--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_14_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_14_43.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53174.13725415018</v>
+        <v>10581653.31357588</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53174.13725415018</v>
+        <v>10581653.31357588</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>86.27031193816731</v>
+        <v>5176.218716290039</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>86.27031193816731</v>
+        <v>5176.218716290039</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1035912424.919899</v>
+        <v>42673103.09882112</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8795.326488384699</v>
+        <v>977589.8721069633</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>16768.32844069372</v>
+        <v>1827203.514646998</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>24741.33039300274</v>
+        <v>2676817.157187035</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>33108.15901366034</v>
+        <v>3546863.555573153</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>41374.65147270179</v>
+        <v>4396943.057797655</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>49641.14393174322</v>
+        <v>5247022.560022156</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>57907.63639078465</v>
+        <v>6097102.062246654</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>66174.12884982607</v>
+        <v>6947181.564471152</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>74440.62130886751</v>
+        <v>7797261.06669565</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>82707.11376790893</v>
+        <v>8647340.568920149</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>90973.60622695035</v>
+        <v>9497420.071144652</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>98878.49467872744</v>
+        <v>10329187.39235906</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>106875.4041406055</v>
+        <v>11179266.89458356</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>114872.3136024836</v>
+        <v>12029346.39680807</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>122869.2230643617</v>
+        <v>12879425.89903258</v>
       </c>
     </row>
   </sheetData>
